--- a/assets/db/db_deportesED.xlsx
+++ b/assets/db/db_deportesED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ordaz\Local Sites\deportesuaq\app\public\wp-content\themes\Deportes-UAQ\assets\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2042362A-41B3-4FF6-BF15-0CCBFD349B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685B3D9-323D-42F1-A775-26CAC60D92BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D11F4A04-C575-489E-B0B9-EF0E243E9A78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{D11F4A04-C575-489E-B0B9-EF0E243E9A78}"/>
   </bookViews>
   <sheets>
     <sheet name="horarios" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="ubicaciones" sheetId="4" r:id="rId3"/>
     <sheet name="deportes" sheetId="7" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">deportes!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
   <si>
     <t>tel</t>
   </si>
@@ -350,27 +353,15 @@
     <t>http://deportesuaq.mx/wp-content/uploads/2024/11/FAV.jpg</t>
   </si>
   <si>
-    <t>FÚTBOL BARDAS</t>
-  </si>
-  <si>
     <t>http://deportesuaq.mx/wp-content/uploads/2024/11/FBV.jpg</t>
   </si>
   <si>
-    <t>HANDBALL</t>
-  </si>
-  <si>
     <t>http://deportesuaq.mx/wp-content/uploads/2024/11/HB-scaled.jpg</t>
   </si>
   <si>
-    <t>VOLEIBOL DE SALA</t>
-  </si>
-  <si>
     <t>http://deportesuaq.mx/wp-content/uploads/2024/11/VSF-scaled.jpg</t>
   </si>
   <si>
-    <t>VOLEIBOL DE PLAYA</t>
-  </si>
-  <si>
     <t>http://deportesuaq.mx/wp-content/uploads/2024/11/VPV-scaled.jpg</t>
   </si>
   <si>
@@ -390,6 +381,42 @@
   </si>
   <si>
     <t>e-SPORTS</t>
+  </si>
+  <si>
+    <t>FÚTBOL BARDAS VARONIL</t>
+  </si>
+  <si>
+    <t>FÚTBOL BARDAS FEMENIL</t>
+  </si>
+  <si>
+    <t>HANDBALL VARONIL</t>
+  </si>
+  <si>
+    <t>HANDBALL FEMENIL</t>
+  </si>
+  <si>
+    <t>VOLEIBOL DE SALA VARONIL</t>
+  </si>
+  <si>
+    <t>VOLEIBOL DE SALA FEMENIL</t>
+  </si>
+  <si>
+    <t>VOLEIBOL DE PLAYA VARONIL</t>
+  </si>
+  <si>
+    <t>VOLEIBOL DE PLAYA FEMENIL</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/11/FBF.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/11/HBF.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/11/VSV.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/11/VPF.jpg</t>
   </si>
 </sst>
 </file>
@@ -762,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D39C4CA-BAAF-4CC7-934E-32B001E4A26C}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,6 +1582,167 @@
       </c>
       <c r="C35">
         <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124574C5-D7C9-4E95-AC5E-6BE55F0C7176}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2060,13 +2248,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C1420D-40A3-433F-9EB5-523BD81FADD0}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2121,61 +2312,61 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2184,32 +2375,32 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2218,15 +2409,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2235,15 +2426,15 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2252,15 +2443,15 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2269,15 +2460,15 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2286,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2303,49 +2494,49 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>109</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2359,10 +2550,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2371,15 +2562,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2388,10 +2579,83 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{12C1420D-40A3-433F-9EB5-523BD81FADD0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/db/db_deportesED.xlsx
+++ b/assets/db/db_deportesED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ordaz\Local Sites\deportesuaq\app\public\wp-content\themes\Deportes-UAQ\assets\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685B3D9-323D-42F1-A775-26CAC60D92BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8AF0D4-424C-4532-9167-00F09D418505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{D11F4A04-C575-489E-B0B9-EF0E243E9A78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D11F4A04-C575-489E-B0B9-EF0E243E9A78}"/>
   </bookViews>
   <sheets>
     <sheet name="horarios" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">deportes!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">horarios!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>tel</t>
   </si>
@@ -74,30 +75,6 @@
     <t>id_ubicacion</t>
   </si>
   <si>
-    <t>dia</t>
-  </si>
-  <si>
-    <t>inicio</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>Martes</t>
-  </si>
-  <si>
-    <t>Viernes</t>
-  </si>
-  <si>
-    <t>Sábado</t>
-  </si>
-  <si>
-    <t>Lunes</t>
-  </si>
-  <si>
-    <t>Miércoles</t>
-  </si>
-  <si>
     <t>JESÚS LOYO NASTA</t>
   </si>
   <si>
@@ -113,9 +90,6 @@
     <t>Pista de atletismo / Gimnasio (Campus Corregidora)</t>
   </si>
   <si>
-    <t>Lunes a Jueves</t>
-  </si>
-  <si>
     <t>ARTURO VARGAS GARCÍA</t>
   </si>
   <si>
@@ -131,9 +105,6 @@
     <t>Gimasio Ingeniería (Centro Universitario)</t>
   </si>
   <si>
-    <t>Lunes a Viernes</t>
-  </si>
-  <si>
     <t>GENARO ALFONSO AYALA GARCÍA</t>
   </si>
   <si>
@@ -143,9 +114,6 @@
     <t>Gimnasio de Tenis de Mesa (Parque Querétaro 2000)</t>
   </si>
   <si>
-    <t>Lunes y Miércoles</t>
-  </si>
-  <si>
     <t>KAREN ADRIANA MEZA ALVAREZ</t>
   </si>
   <si>
@@ -155,9 +123,6 @@
     <t>Cabecera Estadio Universitario (Centro Universitario)</t>
   </si>
   <si>
-    <t>Martes y Jueves</t>
-  </si>
-  <si>
     <t>JAIME RIVAS MÁRQUEZ</t>
   </si>
   <si>
@@ -170,9 +135,6 @@
     <t>ubicacion</t>
   </si>
   <si>
-    <t>Lunes, Miércoles y Viernes</t>
-  </si>
-  <si>
     <t>ARTURO SÁNCHEZ ACEVES</t>
   </si>
   <si>
@@ -188,9 +150,6 @@
     <t>Campo de Béisbol (Campus Corregidora)</t>
   </si>
   <si>
-    <t>Jueves</t>
-  </si>
-  <si>
     <t>ALEJANDRO PALOMARES MARTÍNEZ</t>
   </si>
   <si>
@@ -206,9 +165,6 @@
     <t>442 287 9719</t>
   </si>
   <si>
-    <t>Martes a Jueves</t>
-  </si>
-  <si>
     <t>JOSÉ FÉLIX CHÁVEZ RODRÍGUEZ</t>
   </si>
   <si>
@@ -218,9 +174,6 @@
     <t>Cancha Fútbol Rápido FCS (Centro Universitario)</t>
   </si>
   <si>
-    <t>Jueves, Miércoles y Viernes</t>
-  </si>
-  <si>
     <t>JUAN CARLOS MAYA CRUZ</t>
   </si>
   <si>
@@ -240,9 +193,6 @@
   </si>
   <si>
     <t>Auditorio (Campus Aeropuerto)</t>
-  </si>
-  <si>
-    <t>Lunes, Martes y Miércoles</t>
   </si>
   <si>
     <t>NATALIA RUTH PALMA SALAZAR</t>
@@ -452,9 +402,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D39C4CA-BAAF-4CC7-934E-32B001E4A26C}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,10 +749,9 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -816,937 +764,355 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>34</v>
+      </c>
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26">
         <v>15</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>13</v>
-      </c>
-      <c r="C25">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>14</v>
-      </c>
-      <c r="C26">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>14</v>
-      </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>17</v>
-      </c>
-      <c r="C30">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>18</v>
-      </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>18</v>
-      </c>
-      <c r="D33">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>19</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>13</v>
-      </c>
-      <c r="C37">
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-      <c r="D38">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>21</v>
-      </c>
-      <c r="D39">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>14</v>
-      </c>
-      <c r="C40">
-        <v>21</v>
-      </c>
-      <c r="D40">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>15</v>
-      </c>
-      <c r="C41">
-        <v>22</v>
-      </c>
-      <c r="D41">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>15</v>
-      </c>
-      <c r="C42">
-        <v>22</v>
-      </c>
-      <c r="D42">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.66666666666666663</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D26" xr:uid="{2D39C4CA-BAAF-4CC7-934E-32B001E4A26C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1775,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1803,10 +1169,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1820,10 +1186,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1837,10 +1203,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1854,10 +1220,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1871,10 +1237,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1888,10 +1254,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1905,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1922,10 +1288,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1939,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1956,10 +1322,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1973,10 +1339,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1990,10 +1356,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2007,10 +1373,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2024,10 +1390,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2041,10 +1407,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2058,10 +1424,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2075,10 +1441,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2110,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +1564,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +1588,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,7 +1604,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2250,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C1420D-40A3-433F-9EB5-523BD81FADD0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -2267,13 +1633,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2290,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2307,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2324,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2332,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2341,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2358,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2375,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,7 +1749,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2392,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2409,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,7 +1783,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2426,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2434,7 +1800,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2443,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2451,7 +1817,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2460,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,7 +1834,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2477,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2485,7 +1851,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2494,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2502,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2511,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2519,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2528,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2536,7 +1902,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2545,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2553,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2562,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2579,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2587,7 +1953,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2596,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2613,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2621,7 +1987,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2630,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2638,7 +2004,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2647,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
